--- a/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/572ec9b303baa228/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reema\git\repository\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{AE4F1EF1-AECD-4ED4-AF19-32EC616077A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCEF9B62-F0BD-49D3-BE3B-1C10472C95DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447AC0D7-48AB-43F7-B9EA-62B16E0DAC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CBF010E-5D3C-4887-A4F1-749EAF4C6D28}"/>
+    <workbookView xWindow="4880" yWindow="1850" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{4CBF010E-5D3C-4887-A4F1-749EAF4C6D28}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredntls" sheetId="1" r:id="rId1"/>
+    <sheet name="adminuser" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Password</t>
   </si>
@@ -45,6 +46,24 @@
   </si>
   <si>
     <t>leon Vicente</t>
+  </si>
+  <si>
+    <t>jijo</t>
+  </si>
+  <si>
+    <t>Jesica</t>
+  </si>
+  <si>
+    <t>Gigo</t>
+  </si>
+  <si>
+    <t>Reema</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Manu</t>
   </si>
 </sst>
 </file>
@@ -418,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D1571B-B221-4DA6-B381-3A82689EC376}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,4 +467,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B8CE2-0DE9-4148-9B0D-2FE99A1499E1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>